--- a/data/kensa.xlsx
+++ b/data/kensa.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="1220検査件数 " sheetId="1" r:id="rId1"/>
+    <sheet name="0109検査件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1220検査件数 '!$A$1:$G$463</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1220検査件数 '!$A$306:$G$625</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1220検査件数 '!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0109検査件数'!$A$1:$G$463</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'0109検査件数'!$A$306:$G$625</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'0109検査件数'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="444">
   <si>
     <t>市区町村名</t>
   </si>
@@ -1561,6 +1561,77 @@
   </si>
   <si>
     <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,8 +1693,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1700,11 +1777,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1739,6 +1827,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2022,11 +2115,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I654"/>
+  <dimension ref="A1:H691"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I654" sqref="A644:I654"/>
+      <pane ySplit="1" topLeftCell="A686" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D697" sqref="D697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -15192,7 +15285,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:7">
       <c r="A641" s="19" t="s">
         <v>415</v>
       </c>
@@ -15211,7 +15304,7 @@
       <c r="F641" s="6"/>
       <c r="G641" s="8"/>
     </row>
-    <row r="642" spans="1:9" s="8" customFormat="1">
+    <row r="642" spans="1:7" s="8" customFormat="1">
       <c r="A642" s="19" t="s">
         <v>416</v>
       </c>
@@ -15234,7 +15327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="643" spans="1:9" s="8" customFormat="1">
+    <row r="643" spans="1:7" s="8" customFormat="1">
       <c r="A643" s="19" t="s">
         <v>417</v>
       </c>
@@ -15252,7 +15345,7 @@
       </c>
       <c r="F643" s="6"/>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:7">
       <c r="A644" s="19" t="s">
         <v>418</v>
       </c>
@@ -15271,13 +15364,11 @@
       <c r="F644" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G644" s="8">
+      <c r="G644">
         <v>114</v>
       </c>
-      <c r="H644" s="8"/>
-      <c r="I644" s="8"/>
-    </row>
-    <row r="645" spans="1:9">
+    </row>
+    <row r="645" spans="1:7">
       <c r="A645" s="19" t="s">
         <v>418</v>
       </c>
@@ -15294,11 +15385,8 @@
         <v>261</v>
       </c>
       <c r="F645" s="6"/>
-      <c r="G645" s="8"/>
-      <c r="H645" s="8"/>
-      <c r="I645" s="8"/>
-    </row>
-    <row r="646" spans="1:9">
+    </row>
+    <row r="646" spans="1:7">
       <c r="A646" s="19" t="s">
         <v>419</v>
       </c>
@@ -15311,19 +15399,17 @@
       <c r="D646" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E646" s="6">
+      <c r="E646" s="20">
         <v>82</v>
       </c>
       <c r="F646" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G646" s="8">
+      <c r="G646">
         <v>82</v>
       </c>
-      <c r="H646" s="8"/>
-      <c r="I646" s="8"/>
-    </row>
-    <row r="647" spans="1:9">
+    </row>
+    <row r="647" spans="1:7">
       <c r="A647" s="19" t="s">
         <v>419</v>
       </c>
@@ -15336,15 +15422,12 @@
       <c r="D647" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E647" s="6">
+      <c r="E647" s="20">
         <v>324</v>
       </c>
       <c r="F647" s="6"/>
-      <c r="G647" s="8"/>
-      <c r="H647" s="8"/>
-      <c r="I647" s="8"/>
-    </row>
-    <row r="648" spans="1:9">
+    </row>
+    <row r="648" spans="1:7">
       <c r="A648" s="19" t="s">
         <v>420</v>
       </c>
@@ -15366,10 +15449,8 @@
       <c r="G648" s="8">
         <v>50</v>
       </c>
-      <c r="H648" s="8"/>
-      <c r="I648" s="8"/>
-    </row>
-    <row r="649" spans="1:9">
+    </row>
+    <row r="649" spans="1:7">
       <c r="A649" s="19" t="s">
         <v>420</v>
       </c>
@@ -15387,87 +15468,872 @@
       </c>
       <c r="F649" s="6"/>
       <c r="G649" s="8"/>
-      <c r="H649" s="8"/>
-      <c r="I649" s="8"/>
-    </row>
-    <row r="650" spans="1:9">
-      <c r="A650" s="19" t="s">
+    </row>
+    <row r="650" spans="1:7" s="4" customFormat="1">
+      <c r="A650" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B650" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C650" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D650" s="6" t="s">
+      <c r="B650" s="12">
+        <v>430005</v>
+      </c>
+      <c r="C650" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D650" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E650" s="6">
+      <c r="E650" s="12">
         <v>171</v>
       </c>
-      <c r="F650" s="6" t="s">
+      <c r="F650" s="12" t="s">
         <v>152</v>
       </c>
       <c r="G650" s="8">
         <v>171</v>
       </c>
-      <c r="H650" s="8"/>
-      <c r="I650" s="8"/>
-    </row>
-    <row r="651" spans="1:9">
-      <c r="A651" s="19" t="s">
+    </row>
+    <row r="651" spans="1:7" s="4" customFormat="1">
+      <c r="A651" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B651" s="6">
-        <v>431001</v>
-      </c>
-      <c r="C651" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D651" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E651" s="6">
+      <c r="B651" s="12">
+        <v>431001</v>
+      </c>
+      <c r="C651" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D651" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E651" s="12">
         <v>403</v>
       </c>
-      <c r="F651" s="6"/>
+      <c r="F651" s="12"/>
       <c r="G651" s="8"/>
-      <c r="H651" s="8"/>
-      <c r="I651" s="8"/>
-    </row>
-    <row r="652" spans="1:9">
-      <c r="A652" s="8"/>
-      <c r="B652" s="8"/>
-      <c r="C652" s="8"/>
-      <c r="D652" s="8"/>
-      <c r="E652" s="8"/>
-      <c r="F652" s="8"/>
-      <c r="G652" s="8"/>
-      <c r="H652" s="8"/>
-      <c r="I652" s="8"/>
-    </row>
-    <row r="653" spans="1:9">
-      <c r="A653" s="8"/>
-      <c r="B653" s="8"/>
-      <c r="C653" s="8"/>
-      <c r="D653" s="8"/>
-      <c r="E653" s="8"/>
-      <c r="F653" s="8"/>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="A652" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B652" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C652" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D652" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E652" s="6">
+        <v>46</v>
+      </c>
+      <c r="F652" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G652" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
+      <c r="A653" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B653" s="6">
+        <v>431001</v>
+      </c>
+      <c r="C653" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D653" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E653" s="6">
+        <v>210</v>
+      </c>
+      <c r="F653" s="6"/>
       <c r="G653" s="8"/>
-      <c r="H653" s="8"/>
-      <c r="I653" s="8"/>
-    </row>
-    <row r="654" spans="1:9">
-      <c r="A654" s="8"/>
-      <c r="B654" s="8"/>
-      <c r="C654" s="8"/>
-      <c r="D654" s="8"/>
-      <c r="E654" s="8"/>
-      <c r="F654" s="8"/>
-      <c r="G654" s="8"/>
-      <c r="H654" s="8"/>
-      <c r="I654" s="8"/>
+    </row>
+    <row r="654" spans="1:7">
+      <c r="A654" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B654" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C654" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D654" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E654" s="6">
+        <v>341</v>
+      </c>
+      <c r="F654" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G654" s="8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7">
+      <c r="A655" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B655" s="6">
+        <v>431001</v>
+      </c>
+      <c r="C655" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D655" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E655" s="6">
+        <v>242</v>
+      </c>
+      <c r="F655" s="6"/>
+      <c r="G655" s="8"/>
+    </row>
+    <row r="656" spans="1:7">
+      <c r="A656" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B656" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C656" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D656" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E656" s="6">
+        <v>405</v>
+      </c>
+      <c r="F656" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G656">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7">
+      <c r="A657" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B657" s="6">
+        <v>431001</v>
+      </c>
+      <c r="C657" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D657" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E657" s="6">
+        <v>276</v>
+      </c>
+      <c r="F657" s="6"/>
+    </row>
+    <row r="658" spans="1:7">
+      <c r="A658" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B658" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C658" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D658" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E658" s="6">
+        <v>263</v>
+      </c>
+      <c r="F658" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G658">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7">
+      <c r="A659" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B659" s="6">
+        <v>431001</v>
+      </c>
+      <c r="C659" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D659" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E659" s="6">
+        <v>260</v>
+      </c>
+      <c r="F659" s="6"/>
+    </row>
+    <row r="660" spans="1:7">
+      <c r="A660" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="B660" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C660" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D660" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E660" s="6">
+        <v>127</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G660" s="8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7">
+      <c r="A661" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="B661" s="6">
+        <v>431001</v>
+      </c>
+      <c r="C661" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D661" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E661" s="6">
+        <v>387</v>
+      </c>
+      <c r="F661" s="6"/>
+      <c r="G661" s="8"/>
+    </row>
+    <row r="662" spans="1:7">
+      <c r="A662" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B662" s="12">
+        <v>430005</v>
+      </c>
+      <c r="C662" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D662" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E662" s="12">
+        <v>125</v>
+      </c>
+      <c r="F662" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G662">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7">
+      <c r="A663" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B663" s="6">
+        <v>431001</v>
+      </c>
+      <c r="C663" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D663" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E663" s="6">
+        <v>319</v>
+      </c>
+      <c r="F663" s="6"/>
+    </row>
+    <row r="664" spans="1:7">
+      <c r="A664" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="B664" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C664" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D664" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E664" s="6">
+        <v>71</v>
+      </c>
+      <c r="F664" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G664">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7">
+      <c r="A665" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B665" s="6">
+        <v>431001</v>
+      </c>
+      <c r="C665" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D665" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E665" s="6">
+        <v>514</v>
+      </c>
+      <c r="F665" s="6"/>
+    </row>
+    <row r="666" spans="1:7">
+      <c r="A666" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B666" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C666" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D666" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E666" s="17">
+        <v>153</v>
+      </c>
+      <c r="F666" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G666">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7">
+      <c r="A667" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B667" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C667" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D667" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E667" s="17">
+        <v>234</v>
+      </c>
+      <c r="F667" s="17"/>
+    </row>
+    <row r="668" spans="1:7">
+      <c r="A668" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B668" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C668" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D668" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E668" s="6">
+        <v>210</v>
+      </c>
+      <c r="F668" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G668">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7">
+      <c r="A669" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B669" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C669" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D669" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E669" s="6">
+        <v>372</v>
+      </c>
+      <c r="F669" s="17"/>
+    </row>
+    <row r="670" spans="1:7">
+      <c r="A670" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B670" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C670" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D670" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E670" s="6">
+        <v>250</v>
+      </c>
+      <c r="F670" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G670">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7">
+      <c r="A671" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B671" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C671" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D671" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E671" s="6">
+        <v>335</v>
+      </c>
+      <c r="F671" s="17"/>
+    </row>
+    <row r="672" spans="1:7">
+      <c r="A672" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B672" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C672" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D672" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E672" s="6">
+        <v>159</v>
+      </c>
+      <c r="F672" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G672">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7">
+      <c r="A673" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B673" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C673" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D673" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E673" s="6">
+        <v>147</v>
+      </c>
+      <c r="F673" s="17"/>
+    </row>
+    <row r="674" spans="1:7">
+      <c r="A674" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B674" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C674" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D674" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E674" s="6">
+        <v>231</v>
+      </c>
+      <c r="F674" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G674">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7">
+      <c r="A675" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B675" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C675" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D675" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E675" s="6">
+        <v>205</v>
+      </c>
+      <c r="F675" s="17"/>
+    </row>
+    <row r="676" spans="1:7">
+      <c r="A676" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B676" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C676" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D676" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E676" s="6">
+        <v>283</v>
+      </c>
+      <c r="F676" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G676">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
+      <c r="A677" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B677" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C677" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D677" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E677" s="6">
+        <v>127</v>
+      </c>
+      <c r="F677" s="17"/>
+    </row>
+    <row r="678" spans="1:7">
+      <c r="A678" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B678" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C678" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D678" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E678" s="6">
+        <v>198</v>
+      </c>
+      <c r="F678" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G678">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
+      <c r="A679" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B679" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C679" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D679" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E679" s="6">
+        <v>241</v>
+      </c>
+      <c r="F679" s="17"/>
+    </row>
+    <row r="680" spans="1:7">
+      <c r="A680" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B680" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C680" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D680" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E680" s="20">
+        <v>380</v>
+      </c>
+      <c r="F680" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G680">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7">
+      <c r="A681" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B681" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C681" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D681" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E681" s="20">
+        <v>97</v>
+      </c>
+      <c r="F681" s="17"/>
+    </row>
+    <row r="682" spans="1:7">
+      <c r="A682" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B682" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C682" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D682" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E682" s="6">
+        <v>222</v>
+      </c>
+      <c r="F682" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G682">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7">
+      <c r="A683" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B683" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C683" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D683" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E683" s="6">
+        <v>177</v>
+      </c>
+      <c r="F683" s="17"/>
+    </row>
+    <row r="684" spans="1:7">
+      <c r="A684" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B684" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C684" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D684" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E684" s="6">
+        <v>395</v>
+      </c>
+      <c r="F684" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G684">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7">
+      <c r="A685" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B685" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C685" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D685" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E685" s="6">
+        <v>221</v>
+      </c>
+      <c r="F685" s="17"/>
+    </row>
+    <row r="686" spans="1:7">
+      <c r="A686" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B686" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C686" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D686" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E686" s="6">
+        <v>265</v>
+      </c>
+      <c r="F686" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G686">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7">
+      <c r="A687" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B687" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C687" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D687" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E687" s="6">
+        <v>314</v>
+      </c>
+      <c r="F687" s="17"/>
+    </row>
+    <row r="688" spans="1:7">
+      <c r="A688" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B688" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C688" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D688" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E688" s="6">
+        <v>324</v>
+      </c>
+      <c r="F688" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G688" s="8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
+      <c r="A689" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B689" s="17">
+        <v>431001</v>
+      </c>
+      <c r="C689" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D689" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E689" s="6">
+        <v>298</v>
+      </c>
+      <c r="F689" s="17"/>
+      <c r="G689" s="8"/>
+    </row>
+    <row r="690" spans="1:7">
+      <c r="A690" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B690" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C690" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D690" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E690" s="23">
+        <v>372</v>
+      </c>
+      <c r="F690" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G690">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
+      <c r="A691" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B691" s="22">
+        <v>431001</v>
+      </c>
+      <c r="C691" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D691" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E691" s="23">
+        <v>180</v>
+      </c>
+      <c r="F691" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G463"/>
